--- a/Results/coeff_summaries.xlsx
+++ b/Results/coeff_summaries.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Variable</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -533,6 +533,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
       <c r="G1" t="s">
         <v>38</v>
       </c>
